--- a/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
+++ b/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B8304-F82C-4140-AD74-C63EF8592F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D17A7F-3550-454B-93F9-395E1308AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2448" yWindow="1584" windowWidth="18432" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>珠海视熙科技有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -656,6 +656,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -671,42 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -715,12 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1070,30 +1070,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="14" t="s">
@@ -1157,7 +1157,7 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="9">
         <v>44879</v>
       </c>
     </row>
@@ -1166,28 +1166,28 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1196,132 +1196,132 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A8" s="23">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A9" s="23">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="86.4" customHeight="1">
-      <c r="A10" s="23">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A11" s="23">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="99.6" customHeight="1">
-      <c r="A12" s="23">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="23">
+      <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="23">
+      <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="23">
+      <c r="A15" s="10">
         <v>8</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -1330,11 +1330,11 @@
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1352,11 +1352,11 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1374,11 +1374,11 @@
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1396,33 +1396,70 @@
       <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
@@ -1432,41 +1469,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
+++ b/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D17A7F-3550-454B-93F9-395E1308AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE2BC1-26B1-4B5D-A4A2-7A886855688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1584" windowWidth="18432" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>珠海视熙科技有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -459,10 +459,6 @@
       </rPr>
       <t>【三摄】拼接测试功能受限于目前相机的效果，过于模糊，导致无法达到样张的可判定起点</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3108</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -659,45 +655,6 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -720,6 +677,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1050,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1070,46 +1066,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1118,20 +1114,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,20 +1136,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1162,32 +1158,32 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1196,132 +1192,132 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="86.4" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="99.6" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="10">
+      <c r="A13" s="25">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="10">
+      <c r="A14" s="25">
         <v>7</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="10">
+      <c r="A15" s="25">
         <v>8</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -1330,11 +1326,11 @@
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1352,11 +1348,11 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1374,11 +1370,11 @@
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1390,19 +1386,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="6">
+        <v>3108</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>47</v>
@@ -1412,30 +1408,36 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1452,23 +1454,17 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
+++ b/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE2BC1-26B1-4B5D-A4A2-7A886855688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CEDB-3D8F-4BC0-B637-2BC7791ECF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1584" windowWidth="18432" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,6 +655,45 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -677,45 +716,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1092,20 +1092,20 @@
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1114,20 +1114,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1136,20 +1136,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1158,18 +1158,18 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="17" t="s">
@@ -1192,132 +1192,132 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A9" s="25">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="86.4" customHeight="1">
-      <c r="A10" s="25">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A11" s="25">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="99.6" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="25">
+      <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="25">
+      <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="25">
+      <c r="A15" s="10">
         <v>8</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -1348,11 +1348,11 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1370,11 +1370,11 @@
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1392,11 +1392,11 @@
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1408,36 +1408,30 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1454,17 +1448,23 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
+++ b/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CEDB-3D8F-4BC0-B637-2BC7791ECF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44EC242-953D-4E2D-9A0B-F8B18A5FB1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1584" windowWidth="18432" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,45 +655,6 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -716,6 +677,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1092,20 +1092,20 @@
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1114,20 +1114,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1136,20 +1136,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1158,18 +1158,18 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="17" t="s">
@@ -1192,132 +1192,132 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="86.4" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="99.6" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="10">
+      <c r="A13" s="25">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="10">
+      <c r="A14" s="25">
         <v>7</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="10">
+      <c r="A15" s="25">
         <v>8</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
@@ -1348,11 +1348,11 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1370,11 +1370,11 @@
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1392,11 +1392,11 @@
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1408,30 +1408,36 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1448,23 +1454,17 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
+++ b/SeewoTestTool/SeewoTestTool/希沃产线测试工具功能测试报告.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44EC242-953D-4E2D-9A0B-F8B18A5FB1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1B11E-08F0-4B84-8D02-8AE667342111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="1584" windowWidth="18432" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>珠海视熙科技有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>详细报告路径：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>希沃产线测试工具功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,27 +125,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>V1.5.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>性能件三摄模组 + 希沃开发板</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022.11.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陈广涛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>何浩玲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对希沃项目开发的产线测试标定工具，目前基本功能除音频测试功能以外均已完成开发并测试通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +451,394 @@
   </si>
   <si>
     <t>严重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio In</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、指定音源接入Audio In1口，上位机判断音量并自动判断测试通过或不通过
+2、指定音源接入Audio In2口，上位机判断音量并自动判断测试通过或不通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三摄模组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、三摄拼缝测试
+2、摄像头清晰度测试
+3、摄像头黑场测试
+4、摄像头异物测试
+5、摄像头老化测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵列MIC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定距离外播放指定音频，上位机展示每一路MIC接收的音频音量值，并显示出现，每一路数值在制定范围内判定通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下复位按钮（恢复出厂设置）后，设备恢复初始状态，并通过指示灯提示复位成功（注意复位和上电开机的指示灯要求状态不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件声明：指红绿指示灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件实现完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件经确认，目前无该需求，暂不做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SXW0301</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AUDIO</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AUDIO IN1&amp;2</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口接入音源，上位机判断音量并自动判断测试通过或者不通过</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底层未实现</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -- Bug</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SXW0301</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AUDIO</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】阵列</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MIC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在指定距离外播放音频，上位机展示每一路</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MIC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，目前底层未实现</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -- Bug</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件已实现，底层数据未实现，目前是自定义值，Bug跟踪后续开发：
+#3134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件已实现，底层数据未实现，目前是自定义值，Bug跟踪后续开发：
+#3135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前存在标定后，写入但是拼接测试因为错位而无法测试通过的问题，需要孙博和跃明那边解决，以及高码率卡死花屏问题罗德祥正在分析，Bug跟踪：#3108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对希沃项目开发的产线测试标定工具，目前基本功能除音频测试功能以及三摄拼接测试功能以外均已完成开发并测试通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.6.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细报告路径：
+\\file.ad.seevision.cn\StorageServer\研发中心\软件测试部\项目\SXW0301（希沃）\测试报告\希沃产线测试工具\希沃产线测试工具功能测试报告.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,10 +1027,33 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -702,18 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1047,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1066,124 +1449,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="24"/>
+      <c r="E3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="31"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="24"/>
+      <c r="E4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="31"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="24"/>
+      <c r="E5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="31"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="9">
-        <v>44879</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1192,238 +1575,343 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4" customHeight="1">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A9" s="25">
-        <v>2</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36.6" customHeight="1">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="86.4" customHeight="1">
-      <c r="A10" s="25">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="99.6" customHeight="1">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A11" s="25">
-        <v>4</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="91.2" customHeight="1">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="138.6" customHeight="1">
+      <c r="A14" s="11">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="97.2" customHeight="1">
+      <c r="A15" s="11">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="95.4" customHeight="1">
+      <c r="A16" s="11">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="63.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>3091</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="99.6" customHeight="1">
-      <c r="A12" s="25">
-        <v>5</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="25" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="G19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="25">
-        <v>6</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="25">
-        <v>7</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="25">
-        <v>8</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A18" s="6">
-        <v>3091</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="H19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1">
-      <c r="A19" s="6">
-        <v>3103</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" customHeight="1">
       <c r="A20" s="6">
+        <v>3103</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" customHeight="1">
+      <c r="A21" s="6">
+        <v>3134</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" customHeight="1">
+      <c r="A22" s="6">
+        <v>3135</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27" customHeight="1">
+      <c r="A23" s="6">
         <v>3108</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="48" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="49">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
@@ -1433,20 +1921,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -1454,17 +1928,39 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
